--- a/lottery-system/data/winnings.xlsx
+++ b/lottery-system/data/winnings.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Wed Jan 14 19:58:01 CST 2026</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:37:47 CST 2026</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:39:03 CST 2026</t>
+  </si>
+  <si>
+    <t>三等奖</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 20:39:19 CST 2026</t>
   </si>
 </sst>
 </file>
@@ -98,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -510,6 +522,325 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3800.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
